--- a/mcmaster_excel/Steel_Decorative_Round_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Steel_Decorative_Round_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,139 +434,105 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Min.Thread Lg.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.162"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.069"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>90279A076</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$17.40</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,12 +577,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>90279A077</t>
+          <t>90279A076</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>11.82</t>
+          <t>$17.40</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -633,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -663,7 +629,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -678,12 +644,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>90279A078</t>
+          <t>90279A077</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +666,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -730,7 +696,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -745,12 +711,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>90279A079</t>
+          <t>90279A078</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +733,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -812,12 +778,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>90279A081</t>
+          <t>90279A079</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -834,7 +800,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -879,12 +845,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>90279A084</t>
+          <t>90279A081</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -901,7 +867,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -916,12 +882,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.187"</t>
+          <t>0.162"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.078"</t>
+          <t>0.069"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -931,7 +897,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -946,17 +912,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>90279A092</t>
+          <t>90279A084</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3-48</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -968,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -998,7 +964,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1013,12 +979,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>90279A096</t>
+          <t>90279A092</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1050,12 +1016,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.211"</t>
+          <t>0.187"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>0.078"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,17 +1046,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>90279A105</t>
+          <t>90279A096</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1102,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,12 +1113,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>90279A106</t>
+          <t>90279A105</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1169,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1214,12 +1180,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90279A107</t>
+          <t>90279A106</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1236,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1281,12 +1247,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>90279A108</t>
+          <t>90279A107</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1303,7 +1269,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1348,12 +1314,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>90279A110</t>
+          <t>90279A108</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1336,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1381,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>90279A112</t>
+          <t>90279A110</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1403,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1448,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90279A103</t>
+          <t>90279A112</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1549,12 +1515,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>90279A114</t>
+          <t>90279A103</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1616,12 +1582,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>90279A115</t>
+          <t>90279A114</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1604,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1683,12 +1649,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>90279A117</t>
+          <t>90279A115</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16.47</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1671,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1720,17 +1686,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.236"</t>
+          <t>0.211"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.086"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1750,17 +1716,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>90279A126</t>
+          <t>90279A117</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>16.47</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>5-40</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1772,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1817,12 +1783,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>90279A128</t>
+          <t>90279A126</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1884,12 +1850,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>90279A133</t>
+          <t>90279A128</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1906,7 +1872,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1921,12 +1887,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.260"</t>
+          <t>0.236"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.103"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1951,17 +1917,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>90279A143</t>
+          <t>90279A133</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1973,7 +1939,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2018,12 +1984,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>90279A144</t>
+          <t>90279A143</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +2006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2085,12 +2051,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>90279A145</t>
+          <t>90279A144</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,7 +2073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2152,12 +2118,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>90279A146</t>
+          <t>90279A145</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2140,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2219,12 +2185,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>90279A148</t>
+          <t>90279A146</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2241,7 +2207,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2286,12 +2252,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>90279A150</t>
+          <t>90279A148</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2308,7 +2274,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2353,12 +2319,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>90279A151</t>
+          <t>90279A150</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2375,7 +2341,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2420,12 +2386,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>90279A152</t>
+          <t>90279A151</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2442,7 +2408,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2487,12 +2453,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>90279A153</t>
+          <t>90279A152</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2509,7 +2475,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2554,12 +2520,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>90279A155</t>
+          <t>90279A153</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2576,7 +2542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2621,12 +2587,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>90279A157</t>
+          <t>90279A155</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2643,7 +2609,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2683,17 +2649,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>90279A158</t>
+          <t>90279A157</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2710,7 +2676,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2725,12 +2691,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.309"</t>
+          <t>0.260"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.103"</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2750,22 +2716,22 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>90279A190</t>
+          <t>90279A158</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2777,7 +2743,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,12 +2788,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>90279A191</t>
+          <t>90279A190</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2844,7 +2810,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2889,12 +2855,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>90279A192</t>
+          <t>90279A191</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2911,7 +2877,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2956,12 +2922,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>90279A194</t>
+          <t>90279A192</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2978,7 +2944,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3023,12 +2989,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>90279A196</t>
+          <t>90279A194</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3045,7 +3011,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3090,12 +3056,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>90279A197</t>
+          <t>90279A196</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3112,7 +3078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3157,12 +3123,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>90279A199</t>
+          <t>90279A197</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3179,7 +3145,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3224,12 +3190,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>90279A201</t>
+          <t>90279A199</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3246,7 +3212,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3291,12 +3257,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>90279A203</t>
+          <t>90279A201</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3313,7 +3279,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3358,12 +3324,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>90279A204</t>
+          <t>90279A203</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3380,7 +3346,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3425,12 +3391,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>90279A205</t>
+          <t>90279A204</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3447,7 +3413,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3462,12 +3428,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.309"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3492,17 +3458,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>90279A238</t>
+          <t>90279A205</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3514,7 +3480,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3559,12 +3525,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>90279A239</t>
+          <t>90279A238</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3581,7 +3547,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3626,12 +3592,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>90279A240</t>
+          <t>90279A239</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3648,7 +3614,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3693,12 +3659,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>90279A242</t>
+          <t>90279A240</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3715,7 +3681,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3760,12 +3726,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>90279A104</t>
+          <t>90279A242</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3782,7 +3748,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3827,12 +3793,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>90279A245</t>
+          <t>90279A104</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3849,7 +3815,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3894,12 +3860,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>90279A246</t>
+          <t>90279A245</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3916,7 +3882,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3961,12 +3927,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>90279A247</t>
+          <t>90279A246</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3983,7 +3949,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4028,12 +3994,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>90279A249</t>
+          <t>90279A247</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4050,7 +4016,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4095,12 +4061,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>90279A251</t>
+          <t>90279A249</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4117,7 +4083,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4162,12 +4128,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>90279A252</t>
+          <t>90279A251</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4184,7 +4150,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4229,12 +4195,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>90279A254</t>
+          <t>90279A252</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4251,7 +4217,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4296,17 +4262,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>90279A825</t>
+          <t>90279A254</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4318,7 +4284,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4363,12 +4329,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>90279A826</t>
+          <t>90279A825</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4385,7 +4351,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4430,12 +4396,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>90279A827</t>
+          <t>90279A826</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4452,7 +4418,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4497,12 +4463,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>90279A829</t>
+          <t>90279A827</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4519,7 +4485,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4564,12 +4530,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>90279A830</t>
+          <t>90279A829</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4586,7 +4552,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4631,12 +4597,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>90279A831</t>
+          <t>90279A830</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4653,7 +4619,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4698,12 +4664,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>90279A832</t>
+          <t>90279A831</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4720,7 +4686,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4765,12 +4731,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>90279A833</t>
+          <t>90279A832</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4787,7 +4753,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4832,12 +4798,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>90279A835</t>
+          <t>90279A833</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4854,7 +4820,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4899,12 +4865,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>90279A836</t>
+          <t>90279A835</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4921,7 +4887,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4966,12 +4932,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>90279A837</t>
+          <t>90279A836</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4988,7 +4954,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5033,12 +4999,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>90279A838</t>
+          <t>90279A837</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5055,7 +5021,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5070,17 +5036,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.408"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.153"</t>
+          <t>0.137"</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5100,17 +5066,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>90279A289</t>
+          <t>90279A838</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5122,7 +5088,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5167,12 +5133,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>90279A291</t>
+          <t>90279A289</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5189,7 +5155,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5234,12 +5200,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>90279A293</t>
+          <t>90279A291</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5256,7 +5222,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5301,12 +5267,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>90279A294</t>
+          <t>90279A293</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5323,7 +5289,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5368,12 +5334,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>90279A296</t>
+          <t>90279A294</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5390,7 +5356,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5435,12 +5401,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>90279A298</t>
+          <t>90279A296</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5457,7 +5423,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5502,12 +5468,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>90279A299</t>
+          <t>90279A298</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5524,7 +5490,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5539,12 +5505,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.472"</t>
+          <t>0.408"</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.153"</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5554,7 +5520,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5569,17 +5535,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>90279A533</t>
+          <t>90279A299</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5591,7 +5557,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5621,7 +5587,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5636,12 +5602,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>90279A535</t>
+          <t>90279A533</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5658,7 +5624,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5703,12 +5669,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>90279A537</t>
+          <t>90279A535</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5725,7 +5691,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5770,12 +5736,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>90279A539</t>
+          <t>90279A537</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5792,7 +5758,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5837,12 +5803,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>90279A540</t>
+          <t>90279A539</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5859,7 +5825,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5904,12 +5870,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>90279A541</t>
+          <t>90279A540</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5926,7 +5892,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5971,12 +5937,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>90279A542</t>
+          <t>90279A541</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5993,7 +5959,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6038,12 +6004,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>90279A544</t>
+          <t>90279A542</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>11.27</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6060,7 +6026,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6105,12 +6071,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>90279A546</t>
+          <t>90279A544</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>11.27</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6127,7 +6093,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6172,12 +6138,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>90279A548</t>
+          <t>90279A546</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6194,7 +6160,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6239,12 +6205,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>90279A550</t>
+          <t>90279A548</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6261,17 +6227,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6301,17 +6267,17 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>90279A551</t>
+          <t>90279A550</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6328,7 +6294,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6373,12 +6339,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>90279A552</t>
+          <t>90279A551</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6395,17 +6361,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6440,17 +6406,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>90279A561</t>
+          <t>90279A552</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>18.30</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6462,7 +6428,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6507,12 +6473,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>90279A562</t>
+          <t>90279A561</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>18.30</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6529,7 +6495,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6544,12 +6510,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.590"</t>
+          <t>0.472"</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.216"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6574,17 +6540,17 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>90279A580</t>
+          <t>90279A562</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>19.85</t>
+          <t>21.93</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -6596,7 +6562,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6641,12 +6607,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>90279A581</t>
+          <t>90279A580</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>19.85</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6663,7 +6629,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6703,17 +6669,17 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>90279A583</t>
+          <t>90279A581</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6730,7 +6696,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6775,12 +6741,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>90279A587</t>
+          <t>90279A583</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6797,7 +6763,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6837,17 +6803,17 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>90279A588</t>
+          <t>90279A587</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6864,7 +6830,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6879,17 +6845,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.708"</t>
+          <t>0.590"</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.256"</t>
+          <t>0.216"</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>No. 4</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6909,17 +6875,17 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>90279A840</t>
+          <t>90279A588</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>15.03</t>
+          <t>14.36</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6931,7 +6897,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6976,12 +6942,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>90279A841</t>
+          <t>90279A840</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>15.03</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6998,7 +6964,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7043,12 +7009,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>90279A842</t>
+          <t>90279A841</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7065,65 +7031,132 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.708"</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.256"</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>90279A842</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>2"</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>0.708"</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>0.256"</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>No. 4</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>90279A843</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>21.02</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
